--- a/RAW2/granulo.xlsx
+++ b/RAW2/granulo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{AE970E68-FF6B-4C62-BF31-5739EAB7B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CC5063-EA8B-49C3-BBC4-5507F8E3976F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{AE970E68-FF6B-4C62-BF31-5739EAB7B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E39EDD1-FF35-4279-B317-BD5565C397B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D489238-0CBC-40B0-A849-BE6C082ABEA7}"/>
+    <workbookView xWindow="31935" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2D489238-0CBC-40B0-A849-BE6C082ABEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="granulo" sheetId="1" r:id="rId1"/>
+    <sheet name="simple" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sablo-limoneux</t>
   </si>
@@ -113,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sable grossier </t>
+  </si>
+  <si>
+    <t>Sable</t>
   </si>
 </sst>
 </file>
@@ -605,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CBA73A-8F32-4854-A29A-7770E1D3ECA9}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -989,6 +993,281 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA2B1D-2558-453A-B0B7-885620F6C7B4}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C2">
+        <v>29.4</v>
+      </c>
+      <c r="D2">
+        <v>60.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11.4</v>
+      </c>
+      <c r="C3">
+        <v>12.2</v>
+      </c>
+      <c r="D3">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D4">
+        <v>86.699999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>10.6</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>5.3</v>
+      </c>
+      <c r="C6">
+        <v>10.7</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>69.699999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5.7</v>
+      </c>
+      <c r="C8">
+        <v>17.2</v>
+      </c>
+      <c r="D8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>14.4</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>11.1</v>
+      </c>
+      <c r="C10">
+        <v>40.9</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>11.7</v>
+      </c>
+      <c r="C11">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>21.5</v>
+      </c>
+      <c r="D12">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13.9</v>
+      </c>
+      <c r="C14">
+        <v>24.1</v>
+      </c>
+      <c r="D14">
+        <v>62.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>17.3</v>
+      </c>
+      <c r="C15">
+        <v>56.3</v>
+      </c>
+      <c r="D15">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C16">
+        <v>9.5</v>
+      </c>
+      <c r="D16">
+        <v>82.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RAW2/granulo.xlsx
+++ b/RAW2/granulo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{AE970E68-FF6B-4C62-BF31-5739EAB7B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E39EDD1-FF35-4279-B317-BD5565C397B0}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{AE970E68-FF6B-4C62-BF31-5739EAB7B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B612B7-A6F9-470E-A40E-D8620CA3A5FB}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2D489238-0CBC-40B0-A849-BE6C082ABEA7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D489238-0CBC-40B0-A849-BE6C082ABEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="granulo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Sablo-limoneux</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Sable</t>
+  </si>
+  <si>
+    <t>Les Gourmandes</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -161,9 +164,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -173,26 +174,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -205,28 +186,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -256,6 +215,126 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -265,34 +344,32 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,390 +687,408 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="1" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>9.4</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>20</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>41.6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>18.8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>11.4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>7.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>47.8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <v>28.6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>3.8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="12">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>47.9</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>38.799999999999997</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>10.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="12">
         <v>53</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>16.399999999999999</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11">
         <v>5.3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>4.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>6.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <v>58.6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="11">
         <v>25.4</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <v>45.3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>24.4</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>5.7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>5.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <v>11.5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="12">
         <v>54</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>14.4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>28</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="12">
         <v>28</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <v>20.9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>11.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>15.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>25.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <v>33.299999999999997</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="11">
         <v>14.7</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>11.7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <v>17.3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <v>18.899999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <v>26.8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>25.2</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>10.1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <v>11.4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <v>38.6</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="11">
         <v>31.9</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>19.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <v>20.8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>23.1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="11">
         <v>16.600000000000001</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>13.9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>11.3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>12.8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <v>45.9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="11">
         <v>16.2</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>17.3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>24.8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>31.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>16.7</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <v>9.5</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="15">
         <v>8.4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="15">
         <v>3.4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <v>6.1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="16">
         <v>54</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="15">
         <v>28.1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1006,6 +1101,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1014,16 +1110,19 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
@@ -1034,10 +1133,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="C2">
@@ -1048,7 +1147,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3">
@@ -1062,7 +1161,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -1076,7 +1175,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -1090,7 +1189,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
@@ -1104,7 +1203,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1118,7 +1217,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8">
@@ -1132,7 +1231,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B9">
@@ -1146,7 +1245,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -1160,7 +1259,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -1174,10 +1273,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12">
@@ -1188,7 +1287,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -1202,7 +1301,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14">
@@ -1216,7 +1315,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -1230,10 +1329,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>8.4</v>
       </c>
       <c r="C16">
